--- a/Assets/Resources/MasterData/CharacterData.xlsx
+++ b/Assets/Resources/MasterData/CharacterData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ゲーム開発Ⅳ\UnityProject\2DRoguelikeSubject\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{556C21DB-DF1A-4FB2-A5E2-77786E7D3D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8CDF86-A7A1-4B38-8110-7197D9EFFA2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45" yWindow="-15645" windowWidth="12465" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterData" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -44,6 +44,22 @@
   </si>
   <si>
     <t>Defense</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>spriteName</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rogue_player_</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rogue_sand_enemy1_</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rogue_sand_enemy2_</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -392,22 +408,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -415,63 +432,75 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1">
         <v>15</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>5</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1">
         <v>5</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>3</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="1">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1">
         <v>2</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>2</v>
       </c>
     </row>
